--- a/to-do - J1.xlsx
+++ b/to-do - J1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C396F09-A7F1-4301-AF10-2007DAF406A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92F038-BE1D-49DE-A9F1-494D386793D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8991ED85-435A-406D-9B42-8647D9730187}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="66">
   <si>
     <t>Nom :</t>
   </si>
@@ -117,21 +117,6 @@
     <t>Liste MultiCritere</t>
   </si>
   <si>
-    <t>Liste</t>
-  </si>
-  <si>
-    <t>Liste OrderByDégat</t>
-  </si>
-  <si>
-    <t>Liste OrderByBudget</t>
-  </si>
-  <si>
-    <t>Liste OrderByDelai</t>
-  </si>
-  <si>
-    <t>Visuel</t>
-  </si>
-  <si>
     <t>Simulation Budget</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>Integration</t>
   </si>
   <si>
-    <t>Ingeration</t>
-  </si>
-  <si>
     <t>Voir Devis</t>
   </si>
   <si>
@@ -219,12 +201,6 @@
     <t xml:space="preserve">Route </t>
   </si>
   <si>
-    <t>Liste OrderByNoRN</t>
-  </si>
-  <si>
-    <t>Cout et duréeTotal</t>
-  </si>
-  <si>
     <t>MCD à changer</t>
   </si>
   <si>
@@ -241,6 +217,12 @@
   </si>
   <si>
     <t>Tout</t>
+  </si>
+  <si>
+    <t>Cout et duréeTotal Et noRN</t>
+  </si>
+  <si>
+    <t>Liste OrderBy</t>
   </si>
 </sst>
 </file>
@@ -306,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H84" totalsRowShown="0">
-  <autoFilter ref="A4:H84" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H71" totalsRowShown="0">
+  <autoFilter ref="A4:H71" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{19ED5805-81D6-43FF-BC0E-44BBDC76AB16}" name="Catégorie"/>
     <tableColumn id="2" xr3:uid="{50E49B5F-158F-4CD4-93A3-9A78ED14BCB9}" name="Taches"/>
@@ -623,16 +605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF842E8-387E-4A80-91B0-664FA38FE2A4}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
@@ -678,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,13 +715,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -756,15 +738,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -786,13 +768,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -811,10 +793,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -833,15 +815,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -863,13 +845,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -888,10 +870,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -911,15 +893,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -938,13 +920,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -960,10 +942,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1041,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1141,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1216,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1235,10 +1217,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1260,10 +1242,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -1285,13 +1267,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1310,13 +1292,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1335,10 +1317,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1360,13 +1342,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1441,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>31</v>
@@ -1463,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1488,7 +1470,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -1513,10 +1495,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1538,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1563,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -1588,10 +1570,10 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -1660,7 +1642,7 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -1726,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -1742,20 +1724,20 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1767,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -1786,20 +1768,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F50">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G50" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1808,10 +1790,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -1830,20 +1812,20 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1852,20 +1834,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F53">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G53" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1874,20 +1856,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G54" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1896,20 +1878,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G55" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1918,20 +1900,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F56">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G56" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1940,13 +1922,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D57">
         <v>30</v>
@@ -1962,20 +1944,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G58" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1984,20 +1966,20 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G59" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -2009,17 +1991,17 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G60" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -2031,21 +2013,24 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
       </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,519 +2038,248 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
       </c>
       <c r="F63">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>22</v>
       </c>
       <c r="F64">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
       </c>
       <c r="F66">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="F68">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
       </c>
       <c r="F69">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70">
-        <v>30</v>
-      </c>
       <c r="F70">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G70" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71">
-        <v>20</v>
-      </c>
-      <c r="F71">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G71" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72">
-        <v>60</v>
-      </c>
-      <c r="F72">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
-      </c>
-      <c r="G72" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73">
-        <v>120</v>
-      </c>
-      <c r="F73">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
-      </c>
-      <c r="G73" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G74" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G75" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <f>SUM(Table1[Estimation (en min)])</f>
+        <v>1238.49</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G76" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <f>SUM(Table1[Temps passé(en min)])</f>
+        <v>469.49</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77">
-        <v>20</v>
-      </c>
-      <c r="F77">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G77" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <f>SUM(Table1[Rest à faire (en min)])</f>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78">
-        <v>20</v>
-      </c>
-      <c r="F78">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G78" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79">
-        <v>20</v>
-      </c>
-      <c r="F79">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G79" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F83">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88">
-        <f>SUM(Table1[Estimation (en min)])</f>
-        <v>1763.49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89">
-        <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>424.49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90">
-        <f>SUM(Table1[Rest à faire (en min)])</f>
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="1">
-        <f>B89/(B89+B90)</f>
-        <v>0.24071018264917862</v>
+      <c r="B78" s="1">
+        <f>B76/(B76+B77)</f>
+        <v>0.37908259251184911</v>
       </c>
     </row>
   </sheetData>
